--- a/new_models_experiments/2uav_120v/inputs_to_load.xlsx
+++ b/new_models_experiments/2uav_120v/inputs_to_load.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0633E1-1922-48EC-98E8-871C5AFDB437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEEFE0B-52B4-43FC-AF7A-679F88FD3FF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8724" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C388623-1A6B-40E9-8627-160DBCAB28EA}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,7 +1572,7 @@
         <v>60</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
